--- a/exercise_OECD_data/2-Final_Data/L_2018.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2018.xlsx
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>634.3069891440419</v>
+        <v>634.306989144042</v>
       </c>
       <c r="C8">
         <v>12.8675569344503</v>
@@ -1085,7 +1085,7 @@
         <v>22.4906317819187</v>
       </c>
       <c r="G14">
-        <v>87.57358907287779</v>
+        <v>87.5735890728778</v>
       </c>
       <c r="H14">
         <v>36.5887709675317</v>
@@ -1626,7 +1626,7 @@
         <v>28.6951858806762</v>
       </c>
       <c r="N24">
-        <v>87.19272646675419</v>
+        <v>87.1927264667542</v>
       </c>
       <c r="O24">
         <v>2489.2258928964</v>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>750.788252199002</v>
+        <v>750.7882521990021</v>
       </c>
       <c r="C25">
         <v>27.0834323622044</v>
@@ -1727,7 +1727,7 @@
         <v>27.6173125460234</v>
       </c>
       <c r="M26">
-        <v>76.4969924585647</v>
+        <v>76.49699245856471</v>
       </c>
       <c r="N26">
         <v>30.5475994795559</v>
@@ -1859,7 +1859,7 @@
         <v>2.11534343654633</v>
       </c>
       <c r="E29">
-        <v>8.19044963412292</v>
+        <v>8.190449634122921</v>
       </c>
       <c r="F29">
         <v>16.1747033307402</v>
@@ -1966,7 +1966,7 @@
         <v>36.3628377666334</v>
       </c>
       <c r="F31">
-        <v>8.70806101222932</v>
+        <v>8.708061012229321</v>
       </c>
       <c r="G31">
         <v>118.342257389234</v>
@@ -2397,7 +2397,7 @@
         <v>142.661093733509</v>
       </c>
       <c r="K39">
-        <v>75.90279707831669</v>
+        <v>75.9027970783167</v>
       </c>
       <c r="L39">
         <v>82.1166027099587</v>
@@ -2819,7 +2819,7 @@
         <v>29.5776228078177</v>
       </c>
       <c r="M47">
-        <v>83.3749491962247</v>
+        <v>83.37494919622471</v>
       </c>
       <c r="N47">
         <v>31.4453961771061</v>
@@ -3107,7 +3107,7 @@
         <v>22.6617446140514</v>
       </c>
       <c r="E53">
-        <v>69.2795530815583</v>
+        <v>69.27955308155831</v>
       </c>
       <c r="F53">
         <v>7.15222959015604</v>
@@ -3660,7 +3660,7 @@
         <v>16432.2968740651</v>
       </c>
       <c r="P63">
-        <v>869.601758086423</v>
+        <v>869.6017580864231</v>
       </c>
     </row>
     <row r="64">
@@ -3939,7 +3939,7 @@
         <v>64.4395263983693</v>
       </c>
       <c r="E69">
-        <v>66.2355809947834</v>
+        <v>66.23558099478341</v>
       </c>
       <c r="F69">
         <v>7.6089610267001</v>
@@ -4180,7 +4180,7 @@
         <v>18648.8916116865</v>
       </c>
       <c r="P73">
-        <v>932.058496483826</v>
+        <v>932.0584964838261</v>
       </c>
     </row>
     <row r="74">
@@ -4199,7 +4199,7 @@
         <v>690.031837776948</v>
       </c>
       <c r="E74">
-        <v>986.0655972543429</v>
+        <v>986.065597254343</v>
       </c>
       <c r="F74">
         <v>45.3791586176435</v>
@@ -4260,7 +4260,7 @@
         <v>78.524007183054</v>
       </c>
       <c r="H75">
-        <v>97.1487397991017</v>
+        <v>97.14873979910171</v>
       </c>
       <c r="I75">
         <v>54.3131827919073</v>
@@ -4382,7 +4382,7 @@
         <v>880.093905935683</v>
       </c>
       <c r="N77">
-        <v>545.4579824906079</v>
+        <v>545.457982490608</v>
       </c>
       <c r="O77">
         <v>36070.6591163226</v>
@@ -4664,7 +4664,7 @@
         <v>1331.96506867604</v>
       </c>
       <c r="D83">
-        <v>675.819697480583</v>
+        <v>675.8196974805831</v>
       </c>
       <c r="E83">
         <v>897.457069369948</v>
@@ -4823,7 +4823,7 @@
         <v>8.986751303559281</v>
       </c>
       <c r="E86">
-        <v>82.00410564497849</v>
+        <v>82.0041056449785</v>
       </c>
       <c r="F86">
         <v>10.1100952165042</v>
@@ -4918,7 +4918,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>8214.640252971139</v>
+        <v>8214.64025297114</v>
       </c>
       <c r="C88">
         <v>124.509029536667</v>

--- a/exercise_OECD_data/2-Final_Data/L_2018.xlsx
+++ b/exercise_OECD_data/2-Final_Data/L_2018.xlsx
@@ -3049,46 +3049,46 @@
         <v>6545.21703574456</v>
       </c>
       <c r="C52">
-        <v>276.322637208253</v>
+        <v>274.383880118349</v>
       </c>
       <c r="D52">
-        <v>39.2413348083677</v>
+        <v>38.9660066020156</v>
       </c>
       <c r="E52">
-        <v>119.56074531687</v>
+        <v>118.721873608786</v>
       </c>
       <c r="F52">
-        <v>257.623769137741</v>
+        <v>268.896429504632</v>
       </c>
       <c r="G52">
-        <v>24.3713914344457</v>
+        <v>57.4519622579044</v>
       </c>
       <c r="H52">
-        <v>34.9060776817508</v>
+        <v>34.6611668547915</v>
       </c>
       <c r="I52">
-        <v>35.212391657478</v>
+        <v>34.9653316457897</v>
       </c>
       <c r="J52">
-        <v>138.236754135463</v>
+        <v>137.266846313674</v>
       </c>
       <c r="K52">
-        <v>70.1184693392287</v>
+        <v>69.62649850058121</v>
       </c>
       <c r="L52">
-        <v>54.8004846276759</v>
+        <v>54.4159890641727</v>
       </c>
       <c r="M52">
-        <v>93.34004040210139</v>
+        <v>92.68514051069241</v>
       </c>
       <c r="N52">
-        <v>109.414666352204</v>
+        <v>108.646982378596</v>
       </c>
       <c r="O52">
-        <v>10916.3717484627</v>
+        <v>10881.21620192</v>
       </c>
       <c r="P52">
-        <v>339.752489435707</v>
+        <v>337.368690719971</v>
       </c>
     </row>
     <row r="53">
@@ -3101,46 +3101,46 @@
         <v>2847.34405409707</v>
       </c>
       <c r="C53">
-        <v>91.8297184508334</v>
+        <v>90.9121607491828</v>
       </c>
       <c r="D53">
-        <v>22.6617446140514</v>
+        <v>22.4353096575444</v>
       </c>
       <c r="E53">
-        <v>69.27955308155831</v>
+        <v>68.58731544248801</v>
       </c>
       <c r="F53">
-        <v>7.15222959015604</v>
+        <v>8.428429969820961</v>
       </c>
       <c r="G53">
-        <v>16.2682538883736</v>
+        <v>35.4701030577917</v>
       </c>
       <c r="H53">
-        <v>33.46261550839</v>
+        <v>33.1282588197812</v>
       </c>
       <c r="I53">
-        <v>35.7834637997355</v>
+        <v>35.4259173174519</v>
       </c>
       <c r="J53">
-        <v>123.261591704296</v>
+        <v>122.029968383502</v>
       </c>
       <c r="K53">
-        <v>88.9621318600844</v>
+        <v>88.0732269323493</v>
       </c>
       <c r="L53">
-        <v>72.5041932555912</v>
+        <v>71.7797351820401</v>
       </c>
       <c r="M53">
-        <v>42.4893764107866</v>
+        <v>42.0648248035101</v>
       </c>
       <c r="N53">
-        <v>51.1479258054217</v>
+        <v>50.6368584294355</v>
       </c>
       <c r="O53">
-        <v>3538.20016770306</v>
+        <v>3526.13254346861</v>
       </c>
       <c r="P53">
-        <v>210.338034327662</v>
+        <v>208.236347786494</v>
       </c>
     </row>
     <row r="54">
@@ -3153,46 +3153,46 @@
         <v>4147.27365907598</v>
       </c>
       <c r="C54">
-        <v>113.90282297341</v>
+        <v>111.893346169823</v>
       </c>
       <c r="D54">
-        <v>29.0739348556078</v>
+        <v>28.5610116799023</v>
       </c>
       <c r="E54">
-        <v>48.3369122702286</v>
+        <v>47.4841511056811</v>
       </c>
       <c r="F54">
-        <v>2.87149973882546</v>
+        <v>7.99238186927306</v>
       </c>
       <c r="G54">
-        <v>28.8346432107057</v>
+        <v>79.8062836652413</v>
       </c>
       <c r="H54">
-        <v>26.6810184065866</v>
+        <v>26.2103111301161</v>
       </c>
       <c r="I54">
-        <v>32.4240178842375</v>
+        <v>31.8519924496029</v>
       </c>
       <c r="J54">
-        <v>103.015053130363</v>
+        <v>101.197658668296</v>
       </c>
       <c r="K54">
-        <v>39.243829763948</v>
+        <v>38.5514890164936</v>
       </c>
       <c r="L54">
-        <v>32.1847262393354</v>
+        <v>31.6169223946243</v>
       </c>
       <c r="M54">
-        <v>49.8923079620924</v>
+        <v>49.0121064630422</v>
       </c>
       <c r="N54">
-        <v>27.0399558739398</v>
+        <v>26.562916212584</v>
       </c>
       <c r="O54">
-        <v>4205.90959662214</v>
+        <v>4159.91722792914</v>
       </c>
       <c r="P54">
-        <v>70.710681068577</v>
+        <v>69.463201246182</v>
       </c>
     </row>
     <row r="55">
@@ -3205,46 +3205,46 @@
         <v>2542.71689744197</v>
       </c>
       <c r="C55">
-        <v>112.59418164102</v>
+        <v>111.049698038967</v>
       </c>
       <c r="D55">
-        <v>155.367552902028</v>
+        <v>153.236335868866</v>
       </c>
       <c r="E55">
-        <v>42.1524831320207</v>
+        <v>41.5742665844659</v>
       </c>
       <c r="F55">
-        <v>26.1549124335852</v>
+        <v>28.6187874232767</v>
       </c>
       <c r="G55">
-        <v>8.789447575974849</v>
+        <v>27.8915965693252</v>
       </c>
       <c r="H55">
-        <v>34.0615347011564</v>
+        <v>33.5943037924188</v>
       </c>
       <c r="I55">
-        <v>24.89373342158</v>
+        <v>24.5522596215741</v>
       </c>
       <c r="J55">
-        <v>73.43942400676561</v>
+        <v>72.43203637385651</v>
       </c>
       <c r="K55">
-        <v>35.6525605316861</v>
+        <v>35.1635051088405</v>
       </c>
       <c r="L55">
-        <v>33.0622928685676</v>
+        <v>32.6087688193003</v>
       </c>
       <c r="M55">
-        <v>22.5168960528009</v>
+        <v>22.2080259476514</v>
       </c>
       <c r="N55">
-        <v>43.1905304726711</v>
+        <v>42.5980747604239</v>
       </c>
       <c r="O55">
-        <v>1927.75092535804</v>
+        <v>1922.69261784785</v>
       </c>
       <c r="P55">
-        <v>626.495524902101</v>
+        <v>617.9017232431841</v>
       </c>
     </row>
     <row r="56">
@@ -3257,46 +3257,46 @@
         <v>51932.3516940765</v>
       </c>
       <c r="C56">
-        <v>2245.47298485427</v>
+        <v>2234.89010290513</v>
       </c>
       <c r="D56">
-        <v>2796.57183353615</v>
+        <v>2783.39163062291</v>
       </c>
       <c r="E56">
-        <v>778.977373516686</v>
+        <v>775.306064335691</v>
       </c>
       <c r="F56">
-        <v>288.327641625681</v>
+        <v>326.890439706448</v>
       </c>
       <c r="G56">
-        <v>95.3323013035818</v>
+        <v>491.029505805984</v>
       </c>
       <c r="H56">
-        <v>452.354970413328</v>
+        <v>450.223027930261</v>
       </c>
       <c r="I56">
-        <v>650.262525674975</v>
+        <v>647.197847724458</v>
       </c>
       <c r="J56">
-        <v>989.723931398751</v>
+        <v>985.059376715229</v>
       </c>
       <c r="K56">
-        <v>440.181757172767</v>
+        <v>438.107186868986</v>
       </c>
       <c r="L56">
-        <v>453.488047061216</v>
+        <v>451.350764404171</v>
       </c>
       <c r="M56">
-        <v>749.63895134294</v>
+        <v>746.105913724565</v>
       </c>
       <c r="N56">
-        <v>1215.85582760366</v>
+        <v>1210.12551653891</v>
       </c>
       <c r="O56">
-        <v>68026.8446816144</v>
+        <v>67706.2351389954</v>
       </c>
       <c r="P56">
-        <v>13341.7951728816</v>
+        <v>13278.9154837219</v>
       </c>
     </row>
     <row r="57">
@@ -3309,46 +3309,46 @@
         <v>10203.3989443241</v>
       </c>
       <c r="C57">
-        <v>316.717174907496</v>
+        <v>315.019559173751</v>
       </c>
       <c r="D57">
-        <v>61.2415710835927</v>
+        <v>60.9133140048247</v>
       </c>
       <c r="E57">
-        <v>270.132649969978</v>
+        <v>268.684729007305</v>
       </c>
       <c r="F57">
-        <v>312.338386639736</v>
+        <v>325.575572477241</v>
       </c>
       <c r="G57">
-        <v>53.2090499487902</v>
+        <v>96.7170378060771</v>
       </c>
       <c r="H57">
-        <v>125.519951914621</v>
+        <v>124.847160344882</v>
       </c>
       <c r="I57">
-        <v>69.43799799187001</v>
+        <v>69.0658077627004</v>
       </c>
       <c r="J57">
-        <v>419.054703986277</v>
+        <v>416.808555323847</v>
       </c>
       <c r="K57">
-        <v>166.579486404593</v>
+        <v>165.686614216268</v>
       </c>
       <c r="L57">
-        <v>176.482126885361</v>
+        <v>175.536176178984</v>
       </c>
       <c r="M57">
-        <v>209.148319891978</v>
+        <v>208.027277186799</v>
       </c>
       <c r="N57">
-        <v>355.30446398089</v>
+        <v>353.400018955134</v>
       </c>
       <c r="O57">
-        <v>16230.0896923214</v>
+        <v>16187.1290158658</v>
       </c>
       <c r="P57">
-        <v>402.098424073403</v>
+        <v>399.943161696424</v>
       </c>
     </row>
     <row r="58">
@@ -3361,46 +3361,46 @@
         <v>350957.415635277</v>
       </c>
       <c r="C58">
-        <v>15799.7481256019</v>
+        <v>15629.2238458095</v>
       </c>
       <c r="D58">
-        <v>31553.7165633981</v>
+        <v>31213.1620970249</v>
       </c>
       <c r="E58">
-        <v>14715.2488239358</v>
+        <v>14556.4293802511</v>
       </c>
       <c r="F58">
-        <v>18709.6742878158</v>
+        <v>19393.9698993255</v>
       </c>
       <c r="G58">
-        <v>2707.93421689024</v>
+        <v>9921.949928782909</v>
       </c>
       <c r="H58">
-        <v>9131.791399761751</v>
+        <v>9033.2333633121</v>
       </c>
       <c r="I58">
-        <v>11188.7199317587</v>
+        <v>11067.9617783379</v>
       </c>
       <c r="J58">
-        <v>15134.1186548799</v>
+        <v>14970.7784127824</v>
       </c>
       <c r="K58">
-        <v>14614.2480322581</v>
+        <v>14456.5186747647</v>
       </c>
       <c r="L58">
-        <v>24096.873431854</v>
+        <v>23836.7995398813</v>
       </c>
       <c r="M58">
-        <v>8966.516500831571</v>
+        <v>8869.742251242569</v>
       </c>
       <c r="N58">
-        <v>6075.81146567106</v>
+        <v>6010.23615610908</v>
       </c>
       <c r="O58">
-        <v>401527.448343828</v>
+        <v>397385.956815457</v>
       </c>
       <c r="P58">
-        <v>196807.401221516</v>
+        <v>194683.288856919</v>
       </c>
     </row>
     <row r="59">
@@ -3413,46 +3413,46 @@
         <v>333.411967058437</v>
       </c>
       <c r="C59">
-        <v>20.1747414075286</v>
+        <v>20.0153593754879</v>
       </c>
       <c r="D59">
-        <v>1.75040242981241</v>
+        <v>1.73657411397346</v>
       </c>
       <c r="E59">
-        <v>6.08129503965756</v>
+        <v>6.03325233411397</v>
       </c>
       <c r="F59">
-        <v>0.775951592597255</v>
+        <v>0.841432818110851</v>
       </c>
       <c r="G59">
-        <v>2.34590016366612</v>
+        <v>3.50895387978142</v>
       </c>
       <c r="H59">
-        <v>1.62408472869193</v>
+        <v>1.61125433255269</v>
       </c>
       <c r="I59">
-        <v>3.66321333249402</v>
+        <v>3.63427366120218</v>
       </c>
       <c r="J59">
-        <v>7.05574587687272</v>
+        <v>7.00000493364559</v>
       </c>
       <c r="K59">
-        <v>0.83008775022032</v>
+        <v>0.823529992193599</v>
       </c>
       <c r="L59">
-        <v>0.757906206722901</v>
+        <v>0.75191868852459</v>
       </c>
       <c r="M59">
-        <v>0.41504387511016</v>
+        <v>0.411764996096799</v>
       </c>
       <c r="N59">
-        <v>3.24816945738386</v>
+        <v>3.22250866510539</v>
       </c>
       <c r="O59">
-        <v>497.872196273448</v>
+        <v>497.215184199844</v>
       </c>
       <c r="P59">
-        <v>26.7432618657938</v>
+        <v>26.5319880093677</v>
       </c>
     </row>
     <row r="60">
@@ -3465,46 +3465,46 @@
         <v>3453.00426314142</v>
       </c>
       <c r="C60">
-        <v>142.756444493694</v>
+        <v>140.546690701578</v>
       </c>
       <c r="D60">
-        <v>68.0954167522621</v>
+        <v>67.0413550184626</v>
       </c>
       <c r="E60">
-        <v>119.195475891932</v>
+        <v>117.350426753944</v>
       </c>
       <c r="F60">
-        <v>36.3160357838478</v>
+        <v>38.4808848942598</v>
       </c>
       <c r="G60">
-        <v>13.2338096500462</v>
+        <v>46.8975263846928</v>
       </c>
       <c r="H60">
-        <v>102.165922388772</v>
+        <v>100.584476905002</v>
       </c>
       <c r="I60">
-        <v>67.8560455182819</v>
+        <v>66.8056890567304</v>
       </c>
       <c r="J60">
-        <v>275.641675243254</v>
+        <v>271.374966028869</v>
       </c>
       <c r="K60">
-        <v>150.689891105608</v>
+        <v>148.3573340047</v>
       </c>
       <c r="L60">
-        <v>176.815551500015</v>
+        <v>174.078590399463</v>
       </c>
       <c r="M60">
-        <v>215.263131129305</v>
+        <v>211.931032729104</v>
       </c>
       <c r="N60">
-        <v>87.98602643299481</v>
+        <v>86.62407421953679</v>
       </c>
       <c r="O60">
-        <v>3702.13830199761</v>
+        <v>3691.0339592145</v>
       </c>
       <c r="P60">
-        <v>190.790272112381</v>
+        <v>187.836993689157</v>
       </c>
     </row>
     <row r="61">
@@ -3517,46 +3517,46 @@
         <v>27171.9017306333</v>
       </c>
       <c r="C61">
-        <v>995.441408336726</v>
+        <v>980.815043929592</v>
       </c>
       <c r="D61">
-        <v>169.665310158795</v>
+        <v>167.172359159521</v>
       </c>
       <c r="E61">
-        <v>493.962295399023</v>
+        <v>486.704336793541</v>
       </c>
       <c r="F61">
-        <v>65.50369569421829</v>
+        <v>82.5281266736874</v>
       </c>
       <c r="G61">
-        <v>136.376546773208</v>
+        <v>500.459024572489</v>
       </c>
       <c r="H61">
-        <v>455.304376628664</v>
+        <v>448.614432174916</v>
       </c>
       <c r="I61">
-        <v>262.014782776873</v>
+        <v>258.164909081791</v>
       </c>
       <c r="J61">
-        <v>1255.30852895969</v>
+        <v>1236.86384719924</v>
       </c>
       <c r="K61">
-        <v>1212.35528588151</v>
+        <v>1194.54173095632</v>
       </c>
       <c r="L61">
-        <v>922.420895103827</v>
+        <v>908.867446316634</v>
       </c>
       <c r="M61">
-        <v>1050.2067932614</v>
+        <v>1034.77574213931</v>
       </c>
       <c r="N61">
-        <v>438.123079397394</v>
+        <v>431.685585677749</v>
       </c>
       <c r="O61">
-        <v>34041.5189705314</v>
+        <v>33777.2809734717</v>
       </c>
       <c r="P61">
-        <v>699.064031097313</v>
+        <v>688.792441853468</v>
       </c>
     </row>
     <row r="62">
@@ -3569,46 +3569,46 @@
         <v>1749.65222197133</v>
       </c>
       <c r="C62">
-        <v>55.5288790697674</v>
+        <v>55.0593804765565</v>
       </c>
       <c r="D62">
-        <v>5.44400775193798</v>
+        <v>5.39797847809377</v>
       </c>
       <c r="E62">
-        <v>21.7760310077519</v>
+        <v>21.5919139123751</v>
       </c>
       <c r="F62">
-        <v>4.35520620155039</v>
+        <v>5.39797847809377</v>
       </c>
       <c r="G62">
-        <v>22.8648325581395</v>
+        <v>34.5470622598002</v>
       </c>
       <c r="H62">
-        <v>14.1544201550388</v>
+        <v>14.0347440430438</v>
       </c>
       <c r="I62">
-        <v>13.0656186046512</v>
+        <v>12.9551483474251</v>
       </c>
       <c r="J62">
-        <v>42.4632604651163</v>
+        <v>42.1042321291314</v>
       </c>
       <c r="K62">
-        <v>55.5288790697674</v>
+        <v>55.0593804765565</v>
       </c>
       <c r="L62">
-        <v>27.2200387596899</v>
+        <v>26.9898923904689</v>
       </c>
       <c r="M62">
-        <v>5.44400775193798</v>
+        <v>5.39797847809377</v>
       </c>
       <c r="N62">
-        <v>19.5984279069767</v>
+        <v>19.4327225211376</v>
       </c>
       <c r="O62">
-        <v>2443.27067906977</v>
+        <v>2433.40869792467</v>
       </c>
       <c r="P62">
-        <v>78.393711627907</v>
+        <v>77.7308900845504</v>
       </c>
     </row>
     <row r="63">
@@ -3621,46 +3621,46 @@
         <v>14262.5329710177</v>
       </c>
       <c r="C63">
-        <v>520.802155601035</v>
+        <v>514.662679712363</v>
       </c>
       <c r="D63">
-        <v>190.940813319321</v>
+        <v>188.689907659792</v>
       </c>
       <c r="E63">
-        <v>197.772970481406</v>
+        <v>195.441523941404</v>
       </c>
       <c r="F63">
-        <v>37.1573459692338</v>
+        <v>47.4982127881836</v>
       </c>
       <c r="G63">
-        <v>49.3833114171752</v>
+        <v>153.39198394189</v>
       </c>
       <c r="H63">
-        <v>105.718642402788</v>
+        <v>104.472378252314</v>
       </c>
       <c r="I63">
-        <v>111.831625126758</v>
+        <v>110.51329808323</v>
       </c>
       <c r="J63">
-        <v>363.662540873082</v>
+        <v>359.375505235284</v>
       </c>
       <c r="K63">
-        <v>138.201354524279</v>
+        <v>136.572167942084</v>
       </c>
       <c r="L63">
-        <v>117.46515822532</v>
+        <v>116.080420280349</v>
       </c>
       <c r="M63">
-        <v>228.337884101259</v>
+        <v>225.646123095984</v>
       </c>
       <c r="N63">
-        <v>139.75956580686</v>
+        <v>138.112010251925</v>
       </c>
       <c r="O63">
-        <v>16432.2968740651</v>
+        <v>16353.1253305153</v>
       </c>
       <c r="P63">
-        <v>869.6017580864231</v>
+        <v>859.35045829993</v>
       </c>
     </row>
     <row r="64">
@@ -3673,46 +3673,46 @@
         <v>378.764412716019</v>
       </c>
       <c r="C64">
-        <v>20.0210617105738</v>
+        <v>19.7467029720591</v>
       </c>
       <c r="D64">
-        <v>15.5585359076146</v>
+        <v>15.3453294180459</v>
       </c>
       <c r="E64">
-        <v>24.8454139299892</v>
+        <v>24.5049446520733</v>
       </c>
       <c r="F64">
-        <v>4.82435221941537</v>
+        <v>7.25631856202171</v>
       </c>
       <c r="G64">
-        <v>0.241217610970769</v>
+        <v>3.92554938601175</v>
       </c>
       <c r="H64">
-        <v>3.61826416456153</v>
+        <v>3.56868126001068</v>
       </c>
       <c r="I64">
-        <v>4.94496102490076</v>
+        <v>4.87719772201459</v>
       </c>
       <c r="J64">
-        <v>20.0210617105738</v>
+        <v>19.7467029720591</v>
       </c>
       <c r="K64">
-        <v>2.89461133164922</v>
+        <v>2.85494500800854</v>
       </c>
       <c r="L64">
-        <v>13.1463597979069</v>
+        <v>12.9662085780388</v>
       </c>
       <c r="M64">
-        <v>5.90983146878383</v>
+        <v>5.82884605801744</v>
       </c>
       <c r="N64">
-        <v>13.9906214363046</v>
+        <v>13.7989008720413</v>
       </c>
       <c r="O64">
-        <v>510.778291230603</v>
+        <v>506.752738921516</v>
       </c>
       <c r="P64">
-        <v>27.619416456153</v>
+        <v>27.2409336180815</v>
       </c>
     </row>
     <row r="65">
@@ -3725,46 +3725,46 @@
         <v>1746.1131022016</v>
       </c>
       <c r="C65">
-        <v>42.0813725396063</v>
+        <v>41.6217943969611</v>
       </c>
       <c r="D65">
-        <v>12.2135909745559</v>
+        <v>12.0802041785375</v>
       </c>
       <c r="E65">
-        <v>57.7369755160826</v>
+        <v>57.1064197530864</v>
       </c>
       <c r="F65">
-        <v>7.21712193951032</v>
+        <v>10.2132635327635</v>
       </c>
       <c r="G65">
-        <v>5.10750168026884</v>
+        <v>18.6694064577398</v>
       </c>
       <c r="H65">
-        <v>15.544570331253</v>
+        <v>15.3748053181387</v>
       </c>
       <c r="I65">
-        <v>16.5438641382621</v>
+        <v>16.363185660019</v>
       </c>
       <c r="J65">
-        <v>63.9548036485838</v>
+        <v>63.2563418803419</v>
       </c>
       <c r="K65">
-        <v>51.2970820931349</v>
+        <v>50.7368575498576</v>
       </c>
       <c r="L65">
-        <v>46.7447436389822</v>
+        <v>46.2342359924027</v>
       </c>
       <c r="M65">
-        <v>15.6556029764762</v>
+        <v>15.4846253561254</v>
       </c>
       <c r="N65">
-        <v>15.544570331253</v>
+        <v>15.3748053181387</v>
       </c>
       <c r="O65">
-        <v>2069.42644167067</v>
+        <v>2057.91769183286</v>
       </c>
       <c r="P65">
-        <v>125.022758521363</v>
+        <v>123.657362773029</v>
       </c>
     </row>
     <row r="66">
@@ -3777,46 +3777,46 @@
         <v>22305.009524559</v>
       </c>
       <c r="C66">
-        <v>684.281137281347</v>
+        <v>677.113716463784</v>
       </c>
       <c r="D66">
-        <v>127.386768554847</v>
+        <v>126.052471104461</v>
       </c>
       <c r="E66">
-        <v>225.463307176721</v>
+        <v>223.101718768957</v>
       </c>
       <c r="F66">
-        <v>21.4190141817885</v>
+        <v>26.7722062522748</v>
       </c>
       <c r="G66">
-        <v>51.8565606506457</v>
+        <v>185.174426578234</v>
       </c>
       <c r="H66">
-        <v>181.49796227726</v>
+        <v>179.59688360901</v>
       </c>
       <c r="I66">
-        <v>118.368236267778</v>
+        <v>117.128402353702</v>
       </c>
       <c r="J66">
-        <v>446.417348209907</v>
+        <v>441.741403162535</v>
       </c>
       <c r="K66">
-        <v>193.89844417198</v>
+        <v>191.867478141303</v>
       </c>
       <c r="L66">
-        <v>178.116012669609</v>
+        <v>176.250357827476</v>
       </c>
       <c r="M66">
-        <v>227.717940248488</v>
+        <v>225.332735956647</v>
       </c>
       <c r="N66">
-        <v>144.296516593101</v>
+        <v>142.785100012132</v>
       </c>
       <c r="O66">
-        <v>24122.3192348373</v>
+        <v>24019.1310426659</v>
       </c>
       <c r="P66">
-        <v>860.142516879189</v>
+        <v>851.133057103571</v>
       </c>
     </row>
     <row r="67">
@@ -3829,46 +3829,46 @@
         <v>19764.9716932271</v>
       </c>
       <c r="C67">
-        <v>471.726485901344</v>
+        <v>467.820955546395</v>
       </c>
       <c r="D67">
-        <v>125.716838540945</v>
+        <v>124.67600037789</v>
       </c>
       <c r="E67">
-        <v>269.887524941111</v>
+        <v>267.653065031434</v>
       </c>
       <c r="F67">
-        <v>85.3490463488984</v>
+        <v>99.51203699886629</v>
       </c>
       <c r="G67">
-        <v>54.2081780864625</v>
+        <v>168.141028032567</v>
       </c>
       <c r="H67">
-        <v>186.845209574616</v>
+        <v>185.298275790993</v>
       </c>
       <c r="I67">
-        <v>93.4226047873078</v>
+        <v>92.6491378954963</v>
       </c>
       <c r="J67">
-        <v>417.518307814882</v>
+        <v>414.061579236662</v>
       </c>
       <c r="K67">
-        <v>224.906270784259</v>
+        <v>223.044220859528</v>
       </c>
       <c r="L67">
-        <v>244.513484134682</v>
+        <v>242.48910165241</v>
       </c>
       <c r="M67">
-        <v>314.868779097963</v>
+        <v>312.261909203339</v>
       </c>
       <c r="N67">
-        <v>187.998575065817</v>
+        <v>186.442092308221</v>
       </c>
       <c r="O67">
-        <v>30125.9066301787</v>
+        <v>30022.8959442097</v>
       </c>
       <c r="P67">
-        <v>492.487064742968</v>
+        <v>488.409652856505</v>
       </c>
     </row>
     <row r="68">
@@ -3881,46 +3881,46 @@
         <v>3496.35386648756</v>
       </c>
       <c r="C68">
-        <v>112.967169859262</v>
+        <v>112.027819416253</v>
       </c>
       <c r="D68">
-        <v>29.4920941262828</v>
+        <v>29.2468599426052</v>
       </c>
       <c r="E68">
-        <v>33.6776533363448</v>
+        <v>33.3976151746343</v>
       </c>
       <c r="F68">
-        <v>10.4102370096413</v>
+        <v>13.5165619094281</v>
       </c>
       <c r="G68">
-        <v>12.7283928798295</v>
+        <v>22.8717256246938</v>
       </c>
       <c r="H68">
-        <v>14.5099385948815</v>
+        <v>14.3892848043676</v>
       </c>
       <c r="I68">
-        <v>18.0301012125746</v>
+        <v>17.8801763841254</v>
       </c>
       <c r="J68">
-        <v>52.9956189212462</v>
+        <v>52.5549470147687</v>
       </c>
       <c r="K68">
-        <v>13.8230775963072</v>
+        <v>13.7081352278295</v>
       </c>
       <c r="L68">
-        <v>10.5175590406685</v>
+        <v>10.4301028907398</v>
       </c>
       <c r="M68">
-        <v>7.07252184469446</v>
+        <v>7.01371204591587</v>
       </c>
       <c r="N68">
-        <v>26.2938976016714</v>
+        <v>26.0752572268496</v>
       </c>
       <c r="O68">
-        <v>2934.52775878375</v>
+        <v>2928.29395842374</v>
       </c>
       <c r="P68">
-        <v>524.35397919284</v>
+        <v>519.9938439140481</v>
       </c>
     </row>
     <row r="69">
@@ -3933,46 +3933,46 @@
         <v>3475.09381754481</v>
       </c>
       <c r="C69">
-        <v>145.638183861927</v>
+        <v>143.865548239583</v>
       </c>
       <c r="D69">
-        <v>64.4395263983693</v>
+        <v>63.6552004959742</v>
       </c>
       <c r="E69">
-        <v>66.23558099478341</v>
+        <v>65.42939440810299</v>
       </c>
       <c r="F69">
-        <v>7.6089610267001</v>
+        <v>16.687013011374</v>
       </c>
       <c r="G69">
-        <v>24.9627317893495</v>
+        <v>43.3119094900103</v>
       </c>
       <c r="H69">
-        <v>56.0296221057008</v>
+        <v>55.3476573803979</v>
       </c>
       <c r="I69">
-        <v>30.2052695302337</v>
+        <v>29.8376259951939</v>
       </c>
       <c r="J69">
-        <v>110.408815663345</v>
+        <v>109.06497440911</v>
       </c>
       <c r="K69">
-        <v>71.47811873566761</v>
+        <v>70.6081225840467</v>
       </c>
       <c r="L69">
-        <v>156.790712065335</v>
+        <v>154.882333410167</v>
       </c>
       <c r="M69">
-        <v>140.201478056565</v>
+        <v>138.495015316382</v>
       </c>
       <c r="N69">
-        <v>59.5731892824096</v>
+        <v>58.8480940178413</v>
       </c>
       <c r="O69">
-        <v>3253.27378481138</v>
+        <v>3240.92481440445</v>
       </c>
       <c r="P69">
-        <v>337.816025678231</v>
+        <v>333.70429683737</v>
       </c>
     </row>
     <row r="70">
@@ -3985,46 +3985,46 @@
         <v>61196.7990171986</v>
       </c>
       <c r="C70">
-        <v>2060.83331252488</v>
+        <v>2053.0319549552</v>
       </c>
       <c r="D70">
-        <v>3072.52070895823</v>
+        <v>3060.88957288082</v>
       </c>
       <c r="E70">
-        <v>2647.58178471692</v>
+        <v>2637.55927000308</v>
       </c>
       <c r="F70">
-        <v>1102.77847285212</v>
+        <v>1308.96315530608</v>
       </c>
       <c r="G70">
-        <v>102.507627613825</v>
+        <v>371.59232540987</v>
       </c>
       <c r="H70">
-        <v>1568.30931708649</v>
+        <v>1562.37242656357</v>
       </c>
       <c r="I70">
-        <v>1307.27725943451</v>
+        <v>1302.32851502049</v>
       </c>
       <c r="J70">
-        <v>2365.34464075448</v>
+        <v>2356.39054475559</v>
       </c>
       <c r="K70">
-        <v>103.682063163327</v>
+        <v>103.289571037261</v>
       </c>
       <c r="L70">
-        <v>197.574805109821</v>
+        <v>196.826878680229</v>
       </c>
       <c r="M70">
-        <v>464.793481084821</v>
+        <v>463.03398888331</v>
       </c>
       <c r="N70">
-        <v>658.450356623881</v>
+        <v>655.957769454074</v>
       </c>
       <c r="O70">
-        <v>69813.1727459415</v>
+        <v>69548.89250534411</v>
       </c>
       <c r="P70">
-        <v>41289.2454241352</v>
+        <v>41132.9435217064</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>472481.883240267</v>
+        <v>472481.883240266</v>
       </c>
       <c r="C71">
-        <v>10052.0540114898</v>
+        <v>10015.6451963263</v>
       </c>
       <c r="D71">
-        <v>15826.7020405263</v>
+        <v>15769.3772919146</v>
       </c>
       <c r="E71">
-        <v>8324.494684929239</v>
+        <v>8294.34313700022</v>
       </c>
       <c r="F71">
-        <v>1979.60766156383</v>
+        <v>2151.99795172574</v>
       </c>
       <c r="G71">
-        <v>220.715253039563</v>
+        <v>1712.44967585864</v>
       </c>
       <c r="H71">
-        <v>1033.70298716279</v>
+        <v>1029.95888660877</v>
       </c>
       <c r="I71">
-        <v>4427.79467076178</v>
+        <v>4411.75707709534</v>
       </c>
       <c r="J71">
-        <v>3086.97406759075</v>
+        <v>3075.79296290182</v>
       </c>
       <c r="K71">
-        <v>1814.49870434101</v>
+        <v>1807.92654029721</v>
       </c>
       <c r="L71">
-        <v>1647.36078389773</v>
+        <v>1641.39399798315</v>
       </c>
       <c r="M71">
-        <v>1674.60490227418</v>
+        <v>1668.53943741605</v>
       </c>
       <c r="N71">
-        <v>11017.509200935</v>
+        <v>10977.6034806116</v>
       </c>
       <c r="O71">
-        <v>187604.80506905</v>
+        <v>186925.295322711</v>
       </c>
       <c r="P71">
-        <v>212935.141962438</v>
+        <v>212163.885041549</v>
       </c>
     </row>
     <row r="72">
@@ -4089,46 +4089,46 @@
         <v>1343.67975917913</v>
       </c>
       <c r="C72">
-        <v>66.6201018653763</v>
+        <v>66.1968089695936</v>
       </c>
       <c r="D72">
-        <v>8.11653252979808</v>
+        <v>8.06496145046837</v>
       </c>
       <c r="E72">
-        <v>20.2913313244952</v>
+        <v>20.1624036261709</v>
       </c>
       <c r="F72">
-        <v>7.45877071927927</v>
+        <v>7.52236465563563</v>
       </c>
       <c r="G72">
-        <v>38.8079468206095</v>
+        <v>41.7306262207721</v>
       </c>
       <c r="H72">
-        <v>5.18763088295963</v>
+        <v>5.15466955091097</v>
       </c>
       <c r="I72">
-        <v>7.27261171630225</v>
+        <v>7.22640276754505</v>
       </c>
       <c r="J72">
-        <v>19.2364303076254</v>
+        <v>19.1142052725168</v>
       </c>
       <c r="K72">
-        <v>35.8666345735725</v>
+        <v>35.6387440242409</v>
       </c>
       <c r="L72">
-        <v>34.1167399455885</v>
+        <v>33.8999679317088</v>
       </c>
       <c r="M72">
-        <v>3.7231800595404</v>
+        <v>3.69952360113228</v>
       </c>
       <c r="N72">
-        <v>13.8626404216888</v>
+        <v>13.7745595415492</v>
       </c>
       <c r="O72">
-        <v>1830.14156886728</v>
+        <v>1829.3774255239</v>
       </c>
       <c r="P72">
-        <v>135.436879965881</v>
+        <v>134.576336863855</v>
       </c>
     </row>
     <row r="73">
@@ -4141,46 +4141,46 @@
         <v>23623.7491085705</v>
       </c>
       <c r="C73">
-        <v>465.257080040916</v>
+        <v>459.327374637085</v>
       </c>
       <c r="D73">
-        <v>530.633987725355</v>
+        <v>523.871053082438</v>
       </c>
       <c r="E73">
-        <v>300.630819588288</v>
+        <v>296.79927726052</v>
       </c>
       <c r="F73">
-        <v>24.5034709116481</v>
+        <v>42.2837326508138</v>
       </c>
       <c r="G73">
-        <v>64.7591731236415</v>
+        <v>180.315725294576</v>
       </c>
       <c r="H73">
-        <v>188.409041043345</v>
+        <v>186.007766228339</v>
       </c>
       <c r="I73">
-        <v>196.336634573584</v>
+        <v>193.834322512264</v>
       </c>
       <c r="J73">
-        <v>705.658779951413</v>
+        <v>696.665152857398</v>
       </c>
       <c r="K73">
-        <v>480.906355581128</v>
+        <v>474.777200028728</v>
       </c>
       <c r="L73">
-        <v>279.010109960363</v>
+        <v>275.454123758907</v>
       </c>
       <c r="M73">
-        <v>251.417966244726</v>
+        <v>248.213642147325</v>
       </c>
       <c r="N73">
-        <v>282.819473085283</v>
+        <v>279.214936518715</v>
       </c>
       <c r="O73">
-        <v>18648.8916116865</v>
+        <v>18574.3492899272</v>
       </c>
       <c r="P73">
-        <v>932.0584964838261</v>
+        <v>920.179403095714</v>
       </c>
     </row>
     <row r="74">
@@ -4193,46 +4193,46 @@
         <v>41318.6246558128</v>
       </c>
       <c r="C74">
-        <v>1599.93294259533</v>
+        <v>1586.08070228719</v>
       </c>
       <c r="D74">
-        <v>690.031837776948</v>
+        <v>684.057533115373</v>
       </c>
       <c r="E74">
-        <v>986.065597254343</v>
+        <v>977.528228437746</v>
       </c>
       <c r="F74">
-        <v>45.3791586176435</v>
+        <v>73.2665027028054</v>
       </c>
       <c r="G74">
-        <v>158.245812481255</v>
+        <v>490.706716161052</v>
       </c>
       <c r="H74">
-        <v>682.564247657783</v>
+        <v>676.6545974889671</v>
       </c>
       <c r="I74">
-        <v>396.385220287066</v>
+        <v>392.953311874014</v>
       </c>
       <c r="J74">
-        <v>1739.10508003141</v>
+        <v>1724.0478855401</v>
       </c>
       <c r="K74">
-        <v>1037.32052698523</v>
+        <v>1028.33939231776</v>
       </c>
       <c r="L74">
-        <v>1955.68630825663</v>
+        <v>1938.75395066334</v>
       </c>
       <c r="M74">
-        <v>1305.21885620686</v>
+        <v>1293.9182543069</v>
       </c>
       <c r="N74">
-        <v>437.922663912522</v>
+        <v>434.131123770185</v>
       </c>
       <c r="O74">
-        <v>52614.028424722</v>
+        <v>52377.0972145985</v>
       </c>
       <c r="P74">
-        <v>3424.42732321493</v>
+        <v>3394.77858673602</v>
       </c>
     </row>
     <row r="75">
@@ -4245,46 +4245,46 @@
         <v>15839.2085048772</v>
       </c>
       <c r="C75">
-        <v>406.108992777855</v>
+        <v>401.233749023104</v>
       </c>
       <c r="D75">
-        <v>493.598272820621</v>
+        <v>487.672740661226</v>
       </c>
       <c r="E75">
-        <v>233.810597754075</v>
+        <v>231.003756052052</v>
       </c>
       <c r="F75">
-        <v>17.3522578524959</v>
+        <v>30.9647875327819</v>
       </c>
       <c r="G75">
-        <v>78.524007183054</v>
+        <v>301.708675565947</v>
       </c>
       <c r="H75">
-        <v>97.14873979910171</v>
+        <v>95.9824918326436</v>
       </c>
       <c r="I75">
-        <v>54.3131827919073</v>
+        <v>53.6611656981816</v>
       </c>
       <c r="J75">
-        <v>492.107280094827</v>
+        <v>486.19964695541</v>
       </c>
       <c r="K75">
-        <v>508.753278235105</v>
+        <v>502.645813769817</v>
       </c>
       <c r="L75">
-        <v>899.895601521734</v>
+        <v>889.092564678749</v>
       </c>
       <c r="M75">
-        <v>775.281206247486</v>
+        <v>765.97413616002</v>
       </c>
       <c r="N75">
-        <v>194.21176260749</v>
+        <v>191.880295687058</v>
       </c>
       <c r="O75">
-        <v>21015.7139040432</v>
+        <v>20849.5170496405</v>
       </c>
       <c r="P75">
-        <v>1725.79691627108</v>
+        <v>1705.07912674254</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>855.687550506745</v>
+        <v>855.687550506746</v>
       </c>
       <c r="C76">
-        <v>50.1794850523911</v>
+        <v>49.5313492561457</v>
       </c>
       <c r="D76">
-        <v>34.8865806723941</v>
+        <v>34.4359733830053</v>
       </c>
       <c r="E76">
-        <v>35.7215709638973</v>
+        <v>35.2601786475822</v>
       </c>
       <c r="F76">
-        <v>4.52953637582559</v>
+        <v>6.96622805813583</v>
       </c>
       <c r="G76">
-        <v>0.754922729304266</v>
+        <v>6.70654694737874</v>
       </c>
       <c r="H76">
-        <v>9.688175026071409</v>
+        <v>9.563039165706719</v>
       </c>
       <c r="I76">
-        <v>7.50347440035755</v>
+        <v>7.40655689811524</v>
       </c>
       <c r="J76">
-        <v>16.1622093410141</v>
+        <v>15.9534525869464</v>
       </c>
       <c r="K76">
-        <v>8.887499404082041</v>
+        <v>8.772705350359059</v>
       </c>
       <c r="L76">
-        <v>7.27470993693202</v>
+        <v>7.18074723658734</v>
       </c>
       <c r="M76">
-        <v>3.29420827332771</v>
+        <v>3.25165912600181</v>
       </c>
       <c r="N76">
-        <v>35.5957505090133</v>
+        <v>35.1359833337418</v>
       </c>
       <c r="O76">
-        <v>1029.63453520882</v>
+        <v>1025.72909700743</v>
       </c>
       <c r="P76">
-        <v>137.87634210657</v>
+        <v>136.095483002868</v>
       </c>
     </row>
     <row r="77">
@@ -4349,46 +4349,46 @@
         <v>35225.4156668798</v>
       </c>
       <c r="C77">
-        <v>2142.60289726854</v>
+        <v>2130.79504011083</v>
       </c>
       <c r="D77">
-        <v>733.934922496032</v>
+        <v>729.89021652698</v>
       </c>
       <c r="E77">
-        <v>450.620808128487</v>
+        <v>448.137442619434</v>
       </c>
       <c r="F77">
-        <v>472.958415194199</v>
+        <v>524.0414830280311</v>
       </c>
       <c r="G77">
-        <v>97.96215571110361</v>
+        <v>334.344134844954</v>
       </c>
       <c r="H77">
-        <v>302.723553813464</v>
+        <v>301.055248180974</v>
       </c>
       <c r="I77">
-        <v>482.120019168285</v>
+        <v>479.463061910144</v>
       </c>
       <c r="J77">
-        <v>563.196758830725</v>
+        <v>560.092988697474</v>
       </c>
       <c r="K77">
-        <v>213.006541200062</v>
+        <v>211.832664876384</v>
       </c>
       <c r="L77">
-        <v>763.500551326146</v>
+        <v>759.292909554829</v>
       </c>
       <c r="M77">
-        <v>880.093905935683</v>
+        <v>875.243719678627</v>
       </c>
       <c r="N77">
-        <v>545.457982490608</v>
+        <v>542.451970526845</v>
       </c>
       <c r="O77">
-        <v>36070.6591163226</v>
+        <v>35881.0973484964</v>
       </c>
       <c r="P77">
-        <v>10687.8493721141</v>
+        <v>10628.9487709481</v>
       </c>
     </row>
     <row r="78">
@@ -4401,46 +4401,46 @@
         <v>4976.48315062093</v>
       </c>
       <c r="C78">
-        <v>137.279921875</v>
+        <v>135.975043261029</v>
       </c>
       <c r="D78">
-        <v>18.3760525344488</v>
+        <v>18.2013837436022</v>
       </c>
       <c r="E78">
-        <v>57.290046136811</v>
+        <v>56.7454904947599</v>
       </c>
       <c r="F78">
-        <v>10.8094426673228</v>
+        <v>17.1307141116256</v>
       </c>
       <c r="G78">
-        <v>12.9713312007874</v>
+        <v>59.9574993906897</v>
       </c>
       <c r="H78">
-        <v>32.4283280019685</v>
+        <v>32.1200889592981</v>
       </c>
       <c r="I78">
-        <v>22.699829601378</v>
+        <v>22.4840622715087</v>
       </c>
       <c r="J78">
-        <v>114.580092273622</v>
+        <v>113.49098098952</v>
       </c>
       <c r="K78">
-        <v>85.3945970718504</v>
+        <v>84.5829009261516</v>
       </c>
       <c r="L78">
-        <v>49.723436269685</v>
+        <v>49.2508030709237</v>
       </c>
       <c r="M78">
-        <v>39.9949378690945</v>
+        <v>39.6147763831343</v>
       </c>
       <c r="N78">
-        <v>157.817862942913</v>
+        <v>156.317766268584</v>
       </c>
       <c r="O78">
-        <v>7836.84593380906</v>
+        <v>7792.33358152571</v>
       </c>
       <c r="P78">
-        <v>209.703187746063</v>
+        <v>207.709908603461</v>
       </c>
     </row>
     <row r="79">
@@ -4453,46 +4453,46 @@
         <v>13316.4833220363</v>
       </c>
       <c r="C79">
-        <v>678.373289533512</v>
+        <v>667.64385799491</v>
       </c>
       <c r="D79">
-        <v>332.850811380138</v>
+        <v>327.586305762992</v>
       </c>
       <c r="E79">
-        <v>390.814277214147</v>
+        <v>384.632997531745</v>
       </c>
       <c r="F79">
-        <v>310.894953109681</v>
+        <v>339.687119168485</v>
       </c>
       <c r="G79">
-        <v>58.8417001648266</v>
+        <v>182.99393333613</v>
       </c>
       <c r="H79">
-        <v>218.303962231979</v>
+        <v>214.851176791408</v>
       </c>
       <c r="I79">
-        <v>225.455298925785</v>
+        <v>221.889404996644</v>
       </c>
       <c r="J79">
-        <v>527.818832821803</v>
+        <v>519.4706326215251</v>
       </c>
       <c r="K79">
-        <v>168.244605375336</v>
+        <v>165.583579354757</v>
       </c>
       <c r="L79">
-        <v>286.931702083067</v>
+        <v>282.393472024109</v>
       </c>
       <c r="M79">
-        <v>372.371356266962</v>
+        <v>366.481777423505</v>
       </c>
       <c r="N79">
-        <v>366.223715951234</v>
+        <v>360.431370720758</v>
       </c>
       <c r="O79">
-        <v>11575.7557904216</v>
+        <v>11513.1830891998</v>
       </c>
       <c r="P79">
-        <v>2146.40470451994</v>
+        <v>2112.45628307322</v>
       </c>
     </row>
     <row r="80">
@@ -4505,46 +4505,46 @@
         <v>3368.83087260067</v>
       </c>
       <c r="C80">
-        <v>124.09024478749</v>
+        <v>122.854347503704</v>
       </c>
       <c r="D80">
-        <v>236.892137262764</v>
+        <v>234.532770904073</v>
       </c>
       <c r="E80">
-        <v>69.61928027265439</v>
+        <v>68.9258955546577</v>
       </c>
       <c r="F80">
-        <v>14.0987788692863</v>
+        <v>16.1288904673127</v>
       </c>
       <c r="G80">
-        <v>7.19515844693932</v>
+        <v>21.4743996200441</v>
       </c>
       <c r="H80">
-        <v>27.5095280005346</v>
+        <v>27.2355423138086</v>
       </c>
       <c r="I80">
-        <v>47.5440210505213</v>
+        <v>47.0704985219999</v>
       </c>
       <c r="J80">
-        <v>99.950896351243</v>
+        <v>98.9554188943</v>
       </c>
       <c r="K80">
-        <v>24.4891940657578</v>
+        <v>24.2452898935982</v>
       </c>
       <c r="L80">
-        <v>32.1158287890938</v>
+        <v>31.795965889033</v>
       </c>
       <c r="M80">
-        <v>42.4712594226143</v>
+        <v>42.0482599011831</v>
       </c>
       <c r="N80">
-        <v>56.9898530473136</v>
+        <v>56.4222531952449</v>
       </c>
       <c r="O80">
-        <v>3506.26951416733</v>
+        <v>3503.49057112949</v>
       </c>
       <c r="P80">
-        <v>596.848305466453</v>
+        <v>590.903896211547</v>
       </c>
     </row>
     <row r="81">
@@ -4557,46 +4557,46 @@
         <v>7096.17710623044</v>
       </c>
       <c r="C81">
-        <v>182.703497650514</v>
+        <v>180.88184131907</v>
       </c>
       <c r="D81">
-        <v>397.098288839941</v>
+        <v>393.138996208037</v>
       </c>
       <c r="E81">
-        <v>105.921236123348</v>
+        <v>104.865141998716</v>
       </c>
       <c r="F81">
-        <v>92.84060154185021</v>
+        <v>100.127259077087</v>
       </c>
       <c r="G81">
-        <v>11.8044751101322</v>
+        <v>47.3788292162873</v>
       </c>
       <c r="H81">
-        <v>47.53694030837</v>
+        <v>47.0629703548454</v>
       </c>
       <c r="I81">
-        <v>64.339706681351</v>
+        <v>63.6982037241196</v>
       </c>
       <c r="J81">
-        <v>191.211227459618</v>
+        <v>189.304744290855</v>
       </c>
       <c r="K81">
-        <v>85.28999133627021</v>
+        <v>84.4396022921387</v>
       </c>
       <c r="L81">
-        <v>130.699999192364</v>
+        <v>129.396846904038</v>
       </c>
       <c r="M81">
-        <v>207.375914096916</v>
+        <v>205.308259937245</v>
       </c>
       <c r="N81">
-        <v>117.193978120411</v>
+        <v>116.02548843633</v>
       </c>
       <c r="O81">
-        <v>4364.5717386931</v>
+        <v>4363.80074339435</v>
       </c>
       <c r="P81">
-        <v>2692.05840484582</v>
+        <v>2665.21707284688</v>
       </c>
     </row>
     <row r="82">
@@ -4609,46 +4609,46 @@
         <v>125641.459485029</v>
       </c>
       <c r="C82">
-        <v>6422.58893010972</v>
+        <v>6353.67675741333</v>
       </c>
       <c r="D82">
-        <v>5425.00472947265</v>
+        <v>5363.67048453588</v>
       </c>
       <c r="E82">
-        <v>2002.75463353227</v>
+        <v>1980.80803815215</v>
       </c>
       <c r="F82">
-        <v>1467.50616569616</v>
+        <v>2406.66391970269</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1434.17513742751</v>
       </c>
       <c r="H82">
-        <v>1032.78180510619</v>
+        <v>1021.48179678962</v>
       </c>
       <c r="I82">
-        <v>1311.21774366172</v>
+        <v>1297.15827218262</v>
       </c>
       <c r="J82">
-        <v>3122.55290643893</v>
+        <v>3088.06716874593</v>
       </c>
       <c r="K82">
-        <v>1191.22372757165</v>
+        <v>1178.27642715398</v>
       </c>
       <c r="L82">
-        <v>2911.44207809696</v>
+        <v>2880.12856504017</v>
       </c>
       <c r="M82">
-        <v>1010.46840445148</v>
+        <v>999.964618315467</v>
       </c>
       <c r="N82">
-        <v>1064.91098381847</v>
+        <v>1053.71341457643</v>
       </c>
       <c r="O82">
-        <v>129892.945246601</v>
+        <v>129315.17392209</v>
       </c>
       <c r="P82">
-        <v>26119.0320247412</v>
+        <v>25847.6084099033</v>
       </c>
     </row>
     <row r="83">
@@ -4661,46 +4661,46 @@
         <v>42970.8989839357</v>
       </c>
       <c r="C83">
-        <v>1331.96506867604</v>
+        <v>1317.93394796211</v>
       </c>
       <c r="D83">
-        <v>675.8196974805831</v>
+        <v>668.700510964958</v>
       </c>
       <c r="E83">
-        <v>897.457069369948</v>
+        <v>888.00312138585</v>
       </c>
       <c r="F83">
-        <v>1050.64679700379</v>
+        <v>1251.13454060679</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>534.887095354524</v>
       </c>
       <c r="H83">
-        <v>254.908038856366</v>
+        <v>252.222799169337</v>
       </c>
       <c r="I83">
-        <v>711.06308949996</v>
+        <v>703.572643782858</v>
       </c>
       <c r="J83">
-        <v>1511.13125791488</v>
+        <v>1495.21277356944</v>
       </c>
       <c r="K83">
-        <v>1441.38645094738</v>
+        <v>1426.20266890663</v>
       </c>
       <c r="L83">
-        <v>758.053587039017</v>
+        <v>750.068136341016</v>
       </c>
       <c r="M83">
-        <v>848.7429020192139</v>
+        <v>839.802116413508</v>
       </c>
       <c r="N83">
-        <v>169.351337294926</v>
+        <v>167.567364792545</v>
       </c>
       <c r="O83">
-        <v>48934.2398255279</v>
+        <v>48418.7591705293</v>
       </c>
       <c r="P83">
-        <v>12274.53187837</v>
+        <v>12145.2301102211</v>
       </c>
     </row>
     <row r="84">
@@ -4713,46 +4713,46 @@
         <v>1732.45670025571</v>
       </c>
       <c r="C84">
-        <v>53.9469854269559</v>
+        <v>53.3083824611019</v>
       </c>
       <c r="D84">
-        <v>48.6713723256253</v>
+        <v>48.0952199702464</v>
       </c>
       <c r="E84">
-        <v>53.7293023620952</v>
+        <v>53.093276241819</v>
       </c>
       <c r="F84">
-        <v>8.97622520396299</v>
+        <v>12.2610544991236</v>
       </c>
       <c r="G84">
-        <v>2.79146518468464</v>
+        <v>14.2096637796861</v>
       </c>
       <c r="H84">
-        <v>39.682342235494</v>
+        <v>39.2125984445656</v>
       </c>
       <c r="I84">
-        <v>23.2664781677614</v>
+        <v>22.9910588492338</v>
       </c>
       <c r="J84">
-        <v>122.696419264441</v>
+        <v>121.243987833439</v>
       </c>
       <c r="K84">
-        <v>54.0366196301339</v>
+        <v>53.3969556102183</v>
       </c>
       <c r="L84">
-        <v>58.6975981953871</v>
+        <v>58.0027593642751</v>
       </c>
       <c r="M84">
-        <v>85.6390786934444</v>
+        <v>84.62531732728441</v>
       </c>
       <c r="N84">
-        <v>31.3847759984498</v>
+        <v>31.0132554977832</v>
       </c>
       <c r="O84">
-        <v>1900.88535168089</v>
+        <v>1894.04822070672</v>
       </c>
       <c r="P84">
-        <v>92.7329856306705</v>
+        <v>91.6352494145027</v>
       </c>
     </row>
     <row r="85">
@@ -4765,46 +4765,46 @@
         <v>689.1898765573731</v>
       </c>
       <c r="C85">
-        <v>18.2783045239002</v>
+        <v>18.0170077106789</v>
       </c>
       <c r="D85">
-        <v>12.0641362361981</v>
+        <v>11.8916738314568</v>
       </c>
       <c r="E85">
-        <v>19.8602997473262</v>
+        <v>19.5763875810304</v>
       </c>
       <c r="F85">
-        <v>2.9591277560486</v>
+        <v>2.9504813374275</v>
       </c>
       <c r="G85">
-        <v>8.36522654113738</v>
+        <v>15.6162358239509</v>
       </c>
       <c r="H85">
-        <v>15.3988455920529</v>
+        <v>15.178711975435</v>
       </c>
       <c r="I85">
-        <v>8.023788723131769</v>
+        <v>7.90908495394063</v>
       </c>
       <c r="J85">
-        <v>44.022716001523</v>
+        <v>43.3933909245991</v>
       </c>
       <c r="K85">
-        <v>14.8866888650445</v>
+        <v>14.673876765609</v>
       </c>
       <c r="L85">
-        <v>27.6337007372538</v>
+        <v>27.2386642101672</v>
       </c>
       <c r="M85">
-        <v>16.6166404762729</v>
+        <v>16.379097918799</v>
       </c>
       <c r="N85">
-        <v>10.6300974005746</v>
+        <v>10.478135243944</v>
       </c>
       <c r="O85">
-        <v>687.894771935897</v>
+        <v>684.758478607984</v>
       </c>
       <c r="P85">
-        <v>99.81365546363919</v>
+        <v>98.3867731149778</v>
       </c>
     </row>
     <row r="86">
@@ -4817,46 +4817,46 @@
         <v>2740.33308579276</v>
       </c>
       <c r="C86">
-        <v>60.6605712990252</v>
+        <v>60.0479757630161</v>
       </c>
       <c r="D86">
-        <v>8.986751303559281</v>
+        <v>8.89599640933573</v>
       </c>
       <c r="E86">
-        <v>82.0041056449785</v>
+        <v>81.17596723518849</v>
       </c>
       <c r="F86">
-        <v>10.1100952165042</v>
+        <v>13.3439946140036</v>
       </c>
       <c r="G86">
-        <v>12.356783042394</v>
+        <v>34.4719860861759</v>
       </c>
       <c r="H86">
-        <v>23.5902221718431</v>
+        <v>23.3519905745063</v>
       </c>
       <c r="I86">
-        <v>20.2201904330084</v>
+        <v>20.0159919210054</v>
       </c>
       <c r="J86">
-        <v>117.951110859216</v>
+        <v>116.759952872531</v>
       </c>
       <c r="K86">
-        <v>86.4974812967581</v>
+        <v>85.62396543985641</v>
       </c>
       <c r="L86">
-        <v>77.51072999319879</v>
+        <v>76.7279690305206</v>
       </c>
       <c r="M86">
-        <v>85.37413738381321</v>
+        <v>84.5119658886894</v>
       </c>
       <c r="N86">
-        <v>31.4536295624575</v>
+        <v>31.135987432675</v>
       </c>
       <c r="O86">
-        <v>4217.03304919519</v>
+        <v>4198.91030520646</v>
       </c>
       <c r="P86">
-        <v>121.32114259805</v>
+        <v>120.095951526032</v>
       </c>
     </row>
     <row r="87">
@@ -4869,46 +4869,46 @@
         <v>26029.5517440833</v>
       </c>
       <c r="C87">
-        <v>688.064452545726</v>
+        <v>683.682255804915</v>
       </c>
       <c r="D87">
-        <v>1635.5932783423</v>
+        <v>1625.17638860599</v>
       </c>
       <c r="E87">
-        <v>363.684871473719</v>
+        <v>361.368607855452</v>
       </c>
       <c r="F87">
-        <v>164.049300034916</v>
+        <v>175.671567677794</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>164.392304129076</v>
       </c>
       <c r="H87">
-        <v>289.719887857328</v>
+        <v>287.87469800103</v>
       </c>
       <c r="I87">
-        <v>360.007880811481</v>
+        <v>357.715035488457</v>
       </c>
       <c r="J87">
-        <v>663.217886988907</v>
+        <v>658.993934927356</v>
       </c>
       <c r="K87">
-        <v>461.459395901412</v>
+        <v>458.520418523269</v>
       </c>
       <c r="L87">
-        <v>251.864086331773</v>
+        <v>250.259995357203</v>
       </c>
       <c r="M87">
-        <v>392.197676258091</v>
+        <v>389.699818139868</v>
       </c>
       <c r="N87">
-        <v>378.818004494302</v>
+        <v>376.405359837956</v>
       </c>
       <c r="O87">
-        <v>16382.1838773109</v>
+        <v>16287.1312823621</v>
       </c>
       <c r="P87">
-        <v>7227.50340164911</v>
+        <v>7181.47233328955</v>
       </c>
     </row>
     <row r="88">
@@ -4921,46 +4921,46 @@
         <v>8214.64025297114</v>
       </c>
       <c r="C88">
-        <v>124.509029536667</v>
+        <v>120.938719644104</v>
       </c>
       <c r="D88">
-        <v>171.742757181188</v>
+        <v>166.818015038214</v>
       </c>
       <c r="E88">
-        <v>110.944501534844</v>
+        <v>107.763155950276</v>
       </c>
       <c r="F88">
-        <v>6.39866560556282</v>
+        <v>26.953906459601</v>
       </c>
       <c r="G88">
-        <v>22.1972603725841</v>
+        <v>119.160989863009</v>
       </c>
       <c r="H88">
-        <v>137.168098124155</v>
+        <v>133.234788070264</v>
       </c>
       <c r="I88">
-        <v>81.8907011937664</v>
+        <v>79.5424764773019</v>
       </c>
       <c r="J88">
-        <v>395.375155472653</v>
+        <v>384.037730113941</v>
       </c>
       <c r="K88">
-        <v>259.763315716886</v>
+        <v>252.31457453498</v>
       </c>
       <c r="L88">
-        <v>744.959659242381</v>
+        <v>723.597860416618</v>
       </c>
       <c r="M88">
-        <v>136.95588107392</v>
+        <v>133.028656366905</v>
       </c>
       <c r="N88">
-        <v>22.8345546052588</v>
+        <v>22.1797712814886</v>
       </c>
       <c r="O88">
-        <v>8787.81287408925</v>
+        <v>8755.054948527</v>
       </c>
       <c r="P88">
-        <v>769.766546250882</v>
+        <v>747.6934072563</v>
       </c>
     </row>
   </sheetData>
